--- a/biology/Zoologie/Chien_de_flic_2/Chien_de_flic_2.xlsx
+++ b/biology/Zoologie/Chien_de_flic_2/Chien_de_flic_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chien de flic 2 (K-911) est un film américain réalisé par Charles T. Kanganis et sorti directement en vidéo en 1999. Il fait suite à Chien de flic de Rod Daniel, sorti dix ans plus tôt.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'inspecteur Mike Dooley et son berger allemand Jerry Lee élabore un plan pour coincer un homme qui a décide d'essayer de tuer Mike. Ils peuvent compter sur l'aide du sergent Wendy Welles et son dobermann nommé Zeus.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : K-911
@@ -564,7 +580,7 @@
 Format : couleur - 35 mm - 1.85:1
 Genre : comédie policière, buddy movie
 Durée : 91 minutes
-Dates de sortie[1] :
+Dates de sortie :
  États-Unis : 12 décembre 1999 vidéo</t>
         </is>
       </c>
@@ -593,7 +609,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>James Belushi (VF : Patrick Floersheim) : l'inspecteur Michael « Mike » Dooley
 Christine Tucci (en) (VF : Évelyn Séléna) : le sergent Wendy Welles
@@ -639,6 +657,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,9 +684,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film reçoit des critiques négatives. Sur l'agrégateur américain Rotten Tomatoes, il ne récolte que 17% d'opinions favorables pour 6 critiques et une note moyenne de 4,71⁄10[2]. Susan King du Los Angeles Times écrit notamment que le film n'est pas crédible mais que Mac est une « joie à regarder » dans le rôle de Jerry Lee[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit des critiques négatives. Sur l'agrégateur américain Rotten Tomatoes, il ne récolte que 17% d'opinions favorables pour 6 critiques et une note moyenne de 4,71⁄10. Susan King du Los Angeles Times écrit notamment que le film n'est pas crédible mais que Mac est une « joie à regarder » dans le rôle de Jerry Lee.
 </t>
         </is>
       </c>
@@ -695,7 +717,9 @@
           <t>Saga Chien de flic</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1989 : Chien de flic (K-9) de Rod Daniel
 1999 : Chien de flic 2 (K-911) (vidéo) de Charles T. Kanganis
